--- a/biology/Botanique/Bergamote_Esperen/Bergamote_Esperen.xlsx
+++ b/biology/Botanique/Bergamote_Esperen/Bergamote_Esperen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bergamote Esperen est un cultivar de poires. Elle est parfois confondue à tort avec la Reinette Bergamotte, un cultivar de pommier.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Poire Esperen.
-Attention, la bergamote est aussi le fruit du bergamotier, arbre de la famille des Rutacées (à ne pas confondre avec la poire bergamote ou ses variétés[1]).
+Attention, la bergamote est aussi le fruit du bergamotier, arbre de la famille des Rutacées (à ne pas confondre avec la poire bergamote ou ses variétés).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Obtenue de semis par le major Esperen de Malines (Belgique) vers 1830 ; son introduction en France date de 1844[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obtenue de semis par le major Esperen de Malines (Belgique) vers 1830 ; son introduction en France date de 1844.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois assez fort.
 Rameaux nombreux, un peu arqués et presque érigés, gros, longs, fortement géniculés, marron tacheté de gris, ponctués de roux et ayant les coussinets ressortis.
@@ -609,7 +627,9 @@
           <t>Époque de floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Moyenne mais considérée comme une des plus résistantes aux gelées.
 </t>
@@ -640,7 +660,9 @@
           <t>Pollinisateurs recommandés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Clapp's Favorite
 Docteur Jules Guyot
@@ -675,7 +697,9 @@
           <t>Mise à fruit</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est relativement lent à fructifier. Il doit être taillé long les premières années.
 Sa fertilité est remarquable.
@@ -707,7 +731,9 @@
           <t>Productivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">D’une grande productivité.
 </t>
@@ -738,21 +764,11 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un fruit de bouche de première qualité.
-Forme et calibre
-Arrondi comme toutes les bergamotes, aplati à sa base.
-Épiderme à maturité
-Rude au toucher, jaune verdâtre, pigmenté de brun, parfois lavé de rouge à l’insolation. Veinée de même autour du pédoncule, et souvent marquée de taches noirâtres.
-Chair
-Jaunâtre, juteuse, fondante, acidulée, fraîche et très sucrée, parfumée, mais parfois plus ou moins granuleuse à son centre. 
-Date de récolte
-Le plus tard possible mais avant les premières gelées : fin octobre à début novembre.
-Maturité naturelle de consommation
-Consommable de janvier à mars à avril 
-Conservation
-Peut se conserver jusqu’en mars dans un bon fruitier.
 </t>
         </is>
       </c>
@@ -778,19 +794,18 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Appréciations générales</t>
+          <t>Fruit</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sensibilité aux ennemis
-Craint la tavelure surtout dans les sols froids.
-Résistance aux ennemis
-Rien de particulier à signaler.
-Résistance au transport et aux manipulations
-Son épiderme lui assure une bonne protection.
-Usage particulier
-Rien à signaler
+          <t>Forme et calibre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrondi comme toutes les bergamotes, aplati à sa base.
 </t>
         </is>
       </c>
@@ -816,10 +831,345 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Épiderme à maturité</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rude au toucher, jaune verdâtre, pigmenté de brun, parfois lavé de rouge à l’insolation. Veinée de même autour du pédoncule, et souvent marquée de taches noirâtres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaunâtre, juteuse, fondante, acidulée, fraîche et très sucrée, parfumée, mais parfois plus ou moins granuleuse à son centre. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Date de récolte</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus tard possible mais avant les premières gelées : fin octobre à début novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Maturité naturelle de consommation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consommable de janvier à mars à avril 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peut se conserver jusqu’en mars dans un bon fruitier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sensibilité aux ennemis</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craint la tavelure surtout dans les sols froids.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Résistance aux ennemis</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rien de particulier à signaler.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Résistance au transport et aux manipulations</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épiderme lui assure une bonne protection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Usage particulier</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rien à signaler
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergamote_Esperen</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Éclaircissage indispensable, autrement l'arbre produit de petits fruits. Un ensachage augmentera les qualités gustatives et donnera un épiderme moins coriace.
 </t>
